--- a/RNN_python/output_data_test/anom_data12.xlsx
+++ b/RNN_python/output_data_test/anom_data12.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>8.881772486937521</v>
+        <v>13.31325403973889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>12.20852381478613</v>
+        <v>-4.522504247036736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>17.61479434729945</v>
+        <v>7.440523161042151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>25.18272533099906</v>
+        <v>30.91413886538432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>30.92105059679557</v>
+        <v>63.34869029864515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>30.43773823500727</v>
+        <v>113.9857214965652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>23.37158178576657</v>
+        <v>188.7716551524466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0250601337426</v>
+        <v>264.9559988847948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>475.9544106319915</v>
+        <v>313.998003449947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>433.8680946870453</v>
+        <v>313.2169885036233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>417.0654378084682</v>
+        <v>291.1020359192015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>309.6434579681841</v>
+        <v>261.210527377643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>268.9033208169446</v>
+        <v>218.0276084587404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>238.4614981437749</v>
+        <v>176.3865497006282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>208.9284021156873</v>
+        <v>139.7720619628641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>177.6884848335723</v>
+        <v>107.8669745084723</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>144.4961597446926</v>
+        <v>80.27420425914184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>111.4489389611357</v>
+        <v>58.11982359669383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>81.44216482914626</v>
+        <v>42.84561699694365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>56.45700252301513</v>
+        <v>33.13485359923274</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37.33663356859736</v>
+        <v>26.24057009362062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>24.2096851125756</v>
+        <v>19.9958575723317</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>16.82204010906462</v>
+        <v>12.51488869485416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>14.67995220465706</v>
+        <v>4.054537943174068</v>
       </c>
     </row>
   </sheetData>
@@ -709,211 +709,211 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43110</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43110.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43110.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43110.125</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43110.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43110.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43110.25</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43110.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43110.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>565</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43110.375</v>
       </c>
       <c r="D11" t="n">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43110.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>525</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43110.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43110.5</v>
       </c>
       <c r="D14" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43110.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>351</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43110.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43110.625</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43110.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43110.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43110.75</v>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43110.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43110.83333333334</v>
       </c>
       <c r="D22" t="n">
         <v>37</v>
@@ -923,30 +923,30 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43110.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43110.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43110.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data12.xlsx
+++ b/RNN_python/output_data_test/anom_data12.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>13.31325403973889</v>
+        <v>16.38159171284663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.522504247036736</v>
+        <v>24.70434796524681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7.440523161042151</v>
+        <v>27.81360696779211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>30.91413886538432</v>
+        <v>31.24133183953559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>63.34869029864515</v>
+        <v>33.05571838216321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>113.9857214965652</v>
+        <v>26.99941193427919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>188.7716551524466</v>
+        <v>20.50014552969456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>264.9559988847948</v>
+        <v>47.18561665758411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>313.998003449947</v>
+        <v>484.0994453396432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>313.2169885036233</v>
+        <v>420.1419143373455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>291.1020359192015</v>
+        <v>427.7648617143542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>261.210527377643</v>
+        <v>292.6952010815575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>218.0276084587404</v>
+        <v>270.6494281644162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>176.3865497006282</v>
+        <v>241.9531840891428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>139.7720619628641</v>
+        <v>197.0266986130102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>107.8669745084723</v>
+        <v>176.7174186135632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>80.27420425914184</v>
+        <v>155.1177384943562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>58.11982359669383</v>
+        <v>112.8387704385293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>42.84561699694365</v>
+        <v>71.36201683208844</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>33.13485359923274</v>
+        <v>45.67222962318422</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>26.24057009362062</v>
+        <v>32.2029686921186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>19.9958575723317</v>
+        <v>25.35517700498045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12.51488869485416</v>
+        <v>22.14346395972946</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>4.054537943174068</v>
+        <v>15.31369382061584</v>
       </c>
     </row>
   </sheetData>
@@ -709,211 +709,211 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>467</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>597</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
         <v>37</v>
@@ -923,30 +923,30 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
